--- a/stockpred/data/Iterations.xlsx
+++ b/stockpred/data/Iterations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saite\PycharmProjects\py38\Image-Classification-for-Trading-Strategies\stockpred\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827DD3E0-E2F7-4D96-8BC4-3D78445DC394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7966557-70BB-4D7A-871E-03868569B23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5089B23-D02E-4905-BFDE-140C647D068B}"/>
   </bookViews>
@@ -310,30 +310,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,10 +335,18 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -1003,38 +1003,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F9D134-04FE-465A-93F9-D4314FDA02D4}">
   <dimension ref="B2:W22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.81640625" customWidth="1"/>
+    <col min="18" max="21" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1059,7 +1052,7 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1245,65 +1238,65 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="I8" s="12" t="s">
+      <c r="G8" s="22"/>
+      <c r="I8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="N8" s="12" t="s">
+      <c r="L8" s="22"/>
+      <c r="N8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14" t="s">
+      <c r="O8" s="17"/>
+      <c r="P8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="D9" s="10">
+      <c r="D9" s="23">
         <f>D11+E11</f>
         <v>716</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10">
+      <c r="E9" s="24"/>
+      <c r="F9" s="23">
         <f>F11+G11</f>
         <v>178</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="I9" s="10">
+      <c r="G9" s="24"/>
+      <c r="I9" s="23">
         <f>I11+J11</f>
         <v>7743</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10">
+      <c r="J9" s="24"/>
+      <c r="K9" s="23">
         <f>K11+L11</f>
         <v>1934</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="N9" s="10">
+      <c r="L9" s="24"/>
+      <c r="N9" s="23">
         <f>N11+O11</f>
         <v>7742</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="10">
+      <c r="O9" s="24"/>
+      <c r="P9" s="23">
         <f>P11+Q11</f>
         <v>1935</v>
       </c>
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1385,65 +1378,65 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="I13" s="12" t="s">
+      <c r="G13" s="22"/>
+      <c r="I13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="N13" s="12" t="s">
+      <c r="L13" s="22"/>
+      <c r="N13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14" t="s">
+      <c r="O13" s="17"/>
+      <c r="P13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="D14" s="10">
+      <c r="D14" s="23">
         <f>D16+E16</f>
         <v>1898</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10">
+      <c r="E14" s="24"/>
+      <c r="F14" s="23">
         <f>F16+G16</f>
         <v>474</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="I14" s="10">
+      <c r="G14" s="24"/>
+      <c r="I14" s="23">
         <f>I16+J16</f>
         <v>7747</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10">
+      <c r="J14" s="24"/>
+      <c r="K14" s="23">
         <f>K16+L16</f>
         <v>1936</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="N14" s="10">
+      <c r="L14" s="24"/>
+      <c r="N14" s="23">
         <f>N16+O16</f>
         <v>7747</v>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="10">
+      <c r="O14" s="24"/>
+      <c r="P14" s="23">
         <f>P16+Q16</f>
         <v>1936</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1525,46 +1518,46 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="20" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="12" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="20" t="s">
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="12" t="s">
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S19" s="18"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="20" t="s">
+      <c r="S19" s="16"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="V19" s="21"/>
-      <c r="W19" s="22"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="20"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1626,62 +1619,126 @@
       <c r="B21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="23">
-        <v>0.96</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
+      <c r="D21" s="13">
+        <v>0.93296086788177401</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.979772388935089</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.93478256464004505</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.92696630954742398</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.98704499006271296</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0.93264245986938399</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="13">
+        <v>0.95918893814086903</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0.92201739549636796</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0.97900605201721103</v>
+      </c>
+      <c r="N21" s="13">
+        <v>0.95553255081176702</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0.90038573741912797</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0.97717624902725198</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="13">
+        <v>0.98385429382324197</v>
+      </c>
+      <c r="S21" s="13">
+        <v>0.99099487066268899</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0.81804949045181197</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0.93850129842758101</v>
+      </c>
+      <c r="V21" s="13">
+        <v>0.76314306259155196</v>
+      </c>
+      <c r="W21" s="13">
+        <v>0.26086956262588501</v>
+      </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
+      <c r="D22" s="13">
+        <v>0.98050582408904996</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.99448370933532704</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.98658931255340498</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.947257399559021</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.99048519134521396</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0.96473902463912897</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13">
+        <v>0.97469985485076904</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0.98824894428253096</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0.986469686031341</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0.92097109556198098</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0.86024791002273504</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0.95788604021072299</v>
+      </c>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="13">
+        <v>0.96424424648284901</v>
+      </c>
+      <c r="S22" s="13">
+        <v>0.99057495594024603</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0.89901566505432096</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0.87241733074188199</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0.87646180391311601</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0.60979467630386297</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:M19"/>
@@ -1694,6 +1751,16 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="N8:O8"/>
@@ -1701,10 +1768,6 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
     <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stockpred/data/Iterations.xlsx
+++ b/stockpred/data/Iterations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saite\PycharmProjects\py38\Image-Classification-for-Trading-Strategies\stockpred\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saite\PycharmProjects\py38\0.GH\Image-Classification-for-Trading-Strategies\stockpred\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7966557-70BB-4D7A-871E-03868569B23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1653A-EAF7-4E8D-9BC8-4DF9F41F25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5089B23-D02E-4905-BFDE-140C647D068B}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
   <dimension ref="B2:W22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1739,6 +1739,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:M19"/>
@@ -1755,20 +1769,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/stockpred/data/Iterations.xlsx
+++ b/stockpred/data/Iterations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saite\PycharmProjects\py38\0.GH\Image-Classification-for-Trading-Strategies\stockpred\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1653A-EAF7-4E8D-9BC8-4DF9F41F25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3322E7-7EE6-441D-B30F-F6CBB607FF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5089B23-D02E-4905-BFDE-140C647D068B}"/>
   </bookViews>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F9D134-04FE-465A-93F9-D4314FDA02D4}">
   <dimension ref="B2:W22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1739,20 +1739,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N14:O14"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:M19"/>
@@ -1769,6 +1755,20 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
